--- a/sra/SRA_metadata_TYK2.xlsx
+++ b/sra/SRA_metadata_TYK2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nsabell/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F05C2E-AFF5-114F-A8B3-61479E319126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821B2171-C68A-1C40-A119-B4AE775D7BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="660" windowWidth="24420" windowHeight="14080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1758,22 +1758,22 @@
     <t>TYK2 DMS: 100U IFN-alpha + 1 uM BMS-986202 treatment</t>
   </si>
   <si>
-    <t>TYK2 VAMP-seq: untreated, bin 100</t>
-  </si>
-  <si>
-    <t>TYK2 VAMP-seq: untreated, bin 25</t>
-  </si>
-  <si>
-    <t>TYK2 VAMP-seq: untreated, bin 50</t>
-  </si>
-  <si>
-    <t>TYK2 VAMP-seq: untreated, bin 75</t>
-  </si>
-  <si>
     <t>TYK2 DMS: 100U IFN-alpha + 7 nM NDI-034858 treatment</t>
   </si>
   <si>
     <t>TYK2 DMS: 100U IFN-alpha + 1 uM NDI-034858 treatment</t>
+  </si>
+  <si>
+    <t>TYK2 VAMP: untreated, bin 100</t>
+  </si>
+  <si>
+    <t>TYK2 VAMP: untreated, bin 25</t>
+  </si>
+  <si>
+    <t>TYK2 VAMP: untreated, bin 50</t>
+  </si>
+  <si>
+    <t>TYK2 VAMP: untreated, bin 75</t>
   </si>
 </sst>
 </file>
@@ -2257,9 +2257,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2268,6 +2265,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -3038,8 +3038,8 @@
   <dimension ref="A1:Q269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A22" sqref="A22"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4338,7 +4338,7 @@
         <v>402</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>48</v>
@@ -4376,7 +4376,7 @@
         <v>403</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>48</v>
@@ -4414,7 +4414,7 @@
         <v>404</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>48</v>
@@ -4452,7 +4452,7 @@
         <v>405</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>48</v>
@@ -4946,7 +4946,7 @@
         <v>418</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>48</v>
@@ -4984,7 +4984,7 @@
         <v>419</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>48</v>
@@ -5022,7 +5022,7 @@
         <v>420</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>48</v>
@@ -5060,7 +5060,7 @@
         <v>421</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>48</v>
@@ -5098,7 +5098,7 @@
         <v>423</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>48</v>
@@ -5136,7 +5136,7 @@
         <v>424</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>48</v>
@@ -5174,7 +5174,7 @@
         <v>425</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>48</v>
@@ -5212,7 +5212,7 @@
         <v>426</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>48</v>
@@ -5250,7 +5250,7 @@
         <v>427</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>48</v>
@@ -5288,7 +5288,7 @@
         <v>428</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>48</v>
@@ -5326,7 +5326,7 @@
         <v>429</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>48</v>
@@ -5364,7 +5364,7 @@
         <v>430</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>48</v>
@@ -5402,7 +5402,7 @@
         <v>431</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>48</v>
@@ -5440,7 +5440,7 @@
         <v>432</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>48</v>
@@ -5478,7 +5478,7 @@
         <v>433</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>48</v>
@@ -5516,7 +5516,7 @@
         <v>434</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>48</v>
@@ -7467,8 +7467,8 @@
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7782,10 +7782,10 @@
       <c r="A37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="C37" s="48"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
@@ -7830,11 +7830,11 @@
       <c r="A42" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -7858,8 +7858,8 @@
       <c r="A45" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="28" t="s">
@@ -7942,7 +7942,7 @@
       <c r="A56" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="45"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="44"/>
     </row>
     <row r="57" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8640,25 +8640,40 @@
     <sortCondition ref="J93"/>
   </sortState>
   <mergeCells count="65">
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -8671,40 +8686,25 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
